--- a/biology/Botanique/Acronychia/Acronychia.xlsx
+++ b/biology/Botanique/Acronychia/Acronychia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acronychia est un genre de 44 espèces de plantes, surtout des arbres, de la famille des Rutaceae. Ils sont répandus sur un large domaine allant de l'Inde, à la Malaisie, à l'Australie et aux iles de l'ouest de l'Océan Pacifique.
 En Australie, où l'on trouve 19 espèces, ils sont souvent appelés trembles (aspens en anglais) bien qu'ils ne fassent pas partie de la même famille.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acronychia acidula F.Muell.
 Acronychia acronychioides
